--- a/testdata/ODFI.xlsx
+++ b/testdata/ODFI.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="7575" windowWidth="15600" xWindow="240" yWindow="570"/>
+    <workbookView xWindow="240" yWindow="570" windowWidth="15600" windowHeight="7575" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ODFI_Add" r:id="rId1" sheetId="9"/>
-    <sheet name="ODFI_Update" r:id="rId2" sheetId="10"/>
+    <sheet name="ODFI_Add" sheetId="9" r:id="rId1"/>
+    <sheet name="ODFI_Update" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="123">
   <si>
     <t>Row Number</t>
   </si>
@@ -384,135 +384,6 @@
   </si>
   <si>
     <t>text::14:16</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='searchResultTable']/table/tbody/tr[*]/td[1]/span[text()='500']</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='searchResultTable']/table/tbody/tr[*]/td[1]/span[text()='500']/../../td[2]</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='searchResultTable']/table/tbody/tr[*]/td[1]/span[text()='500']/../../td[3]</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='searchResultTable']/table/tbody/tr[*]/td[1]/span[text()='500']/../../td[4]</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='searchResultTable']/table/tbody/tr[*]/td[1]/span[text()='500']/../../td[5]</t>
-  </si>
-  <si>
-    <t>text::500</t>
-  </si>
-  <si>
-    <t>text::13:50</t>
-  </si>
-  <si>
-    <t>text::13:51</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='searchResultTable']/table/tbody/tr[*]/td[1]/span[text()='552']</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='searchResultTable']/table/tbody/tr[*]/td[1]/span[text()='552']/../../td[2]</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='searchResultTable']/table/tbody/tr[*]/td[1]/span[text()='552']/../../td[3]</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='searchResultTable']/table/tbody/tr[*]/td[1]/span[text()='552']/../../td[4]</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='searchResultTable']/table/tbody/tr[*]/td[1]/span[text()='552']/../../td[5]</t>
-  </si>
-  <si>
-    <t>text::552</t>
-  </si>
-  <si>
-    <t>text::14:55</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='searchResultTable']/table/tbody/tr[*]/td[1]/span[text()='105']</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='searchResultTable']/table/tbody/tr[*]/td[1]/span[text()='105']/../../td[2]</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='searchResultTable']/table/tbody/tr[*]/td[1]/span[text()='105']/../../td[3]</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='searchResultTable']/table/tbody/tr[*]/td[1]/span[text()='105']/../../td[4]</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='searchResultTable']/table/tbody/tr[*]/td[1]/span[text()='105']/../../td[5]</t>
-  </si>
-  <si>
-    <t>text::105</t>
-  </si>
-  <si>
-    <t>text::15:10</t>
-  </si>
-  <si>
-    <t>text::15:11</t>
-  </si>
-  <si>
-    <t>text::16:57</t>
-  </si>
-  <si>
-    <t>text::16:58</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='searchResultTable']/table/tbody/tr[*]/td[1]/span[text()='225']</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='searchResultTable']/table/tbody/tr[*]/td[1]/span[text()='225']/../../td[2]</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='searchResultTable']/table/tbody/tr[*]/td[1]/span[text()='225']/../../td[3]</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='searchResultTable']/table/tbody/tr[*]/td[1]/span[text()='225']/../../td[4]</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='searchResultTable']/table/tbody/tr[*]/td[1]/span[text()='225']/../../td[5]</t>
-  </si>
-  <si>
-    <t>text::225</t>
-  </si>
-  <si>
-    <t>text::17:22</t>
-  </si>
-  <si>
-    <t>text::17:23</t>
-  </si>
-  <si>
-    <t>text::14:02</t>
-  </si>
-  <si>
-    <t>text::14:03</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='searchResultTable']/table/tbody/tr[*]/td[1]/span[text()='209']</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='searchResultTable']/table/tbody/tr[*]/td[1]/span[text()='209']/../../td[2]</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='searchResultTable']/table/tbody/tr[*]/td[1]/span[text()='209']/../../td[3]</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='searchResultTable']/table/tbody/tr[*]/td[1]/span[text()='209']/../../td[4]</t>
-  </si>
-  <si>
-    <t>xpath:://div[@id='searchResultTable']/table/tbody/tr[*]/td[1]/span[text()='209']/../../td[5]</t>
-  </si>
-  <si>
-    <t>text::209</t>
-  </si>
-  <si>
-    <t>text::15:02</t>
-  </si>
-  <si>
-    <t>text::15:03</t>
   </si>
 </sst>
 </file>
@@ -613,24 +484,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="3" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -644,10 +515,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -805,7 +676,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -814,13 +685,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -830,7 +701,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -839,7 +710,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -848,7 +719,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -858,12 +729,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -894,7 +765,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -913,7 +784,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -925,8 +796,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -1895,14 +1766,14 @@
       <c r="E38" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -1975,19 +1846,19 @@
         <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -2077,7 +1948,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="E7" s="3" t="str">
         <f>CONCATENATE("text::",ODFI_Add!E6)</f>
@@ -2088,7 +1959,7 @@
         <v>text::2902</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -2293,7 +2164,7 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="E19" s="3" t="str">
         <f>CONCATENATE("text::",I10)</f>
@@ -2304,7 +2175,7 @@
         <v>text::2251</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -2509,6 +2380,6 @@
       <c r="D38" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>